--- a/biology/Histoire de la zoologie et de la botanique/Edward_Forbes/Edward_Forbes.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_Forbes/Edward_Forbes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Forbes FRS, né le 12 février 1815 à Douglas, île de Man et mort le 18 novembre 1854 à Édimbourg, est un naturaliste britannique.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Effectuant de nombreux dragages autour des îles Britanniques et en Méditerranée, il établit qu'en dessous de 500 m de profondeur il n'existe plus de vie animale. Il fallut des années d'observations pour que ce mythe du zéro vie animale soit détruit[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Effectuant de nombreux dragages autour des îles Britanniques et en Méditerranée, il établit qu'en dessous de 500 m de profondeur il n'existe plus de vie animale. Il fallut des années d'observations pour que ce mythe du zéro vie animale soit détruit. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A history of British star-fishes, and other animals of the class Echinodermata (1841)[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A history of British star-fishes, and other animals of the class Echinodermata (1841)
 Literary Gazette (25 novembre 1854).
 Edinburgh New Philosophical Journal (New Ser.) (1855).
 Quart. Journ. Geol. Soc. (mai 1855).
